--- a/ProjectExecution/Design/DatabaseDesign.xlsx
+++ b/ProjectExecution/Design/DatabaseDesign.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\ProjectExecution\Design\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DatabaseDesign" sheetId="2" r:id="rId1"/>
     <sheet name="NormalizedDesign" sheetId="4" r:id="rId2"/>
     <sheet name="Hibernate Best Practice" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="225">
   <si>
     <t>role_name</t>
   </si>
@@ -838,6 +833,9 @@
   <si>
     <t>Teacher App schema</t>
   </si>
+  <si>
+    <t>currency_symbol</t>
+  </si>
 </sst>
 </file>
 
@@ -1322,98 +1320,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1426,26 +1352,98 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1719,7 +1717,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1729,7 +1727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1742,86 +1740,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" ht="30">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" ht="18">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-    </row>
-    <row r="4" spans="1:5" ht="30">
-      <c r="A4" s="69" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="34" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="75">
+      <c r="D5" s="39">
         <v>44163</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="36" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="74"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="74"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="73"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1838,8 +1836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y61"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AD35" sqref="AD35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1873,74 +1871,74 @@
   <sheetData>
     <row r="1" spans="2:25" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:25" ht="21">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
-      <c r="G2" s="36" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="G2" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-      <c r="L2" s="36" t="s">
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
+      <c r="L2" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="38"/>
-      <c r="Q2" s="36" t="s">
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="47"/>
+      <c r="Q2" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="38"/>
-      <c r="V2" s="36" t="s">
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="47"/>
+      <c r="V2" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="38"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="47"/>
     </row>
     <row r="3" spans="2:25" ht="15" customHeight="1">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="G3" s="33" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="72"/>
+      <c r="G3" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
-      <c r="L3" s="33" t="s">
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="L3" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="40"/>
-      <c r="Q3" s="33" t="s">
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="62"/>
+      <c r="Q3" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="40"/>
-      <c r="V3" s="33" t="s">
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="62"/>
+      <c r="V3" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="40"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="62"/>
     </row>
     <row r="4" spans="2:25">
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
       <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
@@ -2203,12 +2201,12 @@
       </c>
     </row>
     <row r="9" spans="2:25" ht="21">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
       <c r="G9" s="19" t="s">
         <v>39</v>
       </c>
@@ -2239,20 +2237,20 @@
       <c r="T9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="V9" s="36" t="s">
+      <c r="V9" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="38"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="47"/>
     </row>
     <row r="10" spans="2:25">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="70"/>
       <c r="G10" s="19" t="s">
         <v>42</v>
       </c>
@@ -2285,12 +2283,12 @@
       <c r="T10" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="V10" s="33" t="s">
+      <c r="V10" s="60" t="s">
         <v>206</v>
       </c>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="40"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="62"/>
     </row>
     <row r="11" spans="2:25">
       <c r="B11" s="3" t="s">
@@ -2469,12 +2467,12 @@
       <c r="J14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="41" t="s">
+      <c r="L14" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="43"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="59"/>
       <c r="V14" s="5" t="s">
         <v>184</v>
       </c>
@@ -2487,12 +2485,12 @@
       </c>
     </row>
     <row r="15" spans="2:25" ht="21" customHeight="1">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
       <c r="G15" s="19" t="s">
         <v>57</v>
       </c>
@@ -2503,18 +2501,18 @@
       <c r="J15" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="47" t="s">
+      <c r="L15" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="49"/>
-      <c r="Q15" s="36" t="s">
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="72"/>
+      <c r="Q15" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="38"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="47"/>
       <c r="V15" s="5" t="s">
         <v>185</v>
       </c>
@@ -2527,12 +2525,12 @@
       </c>
     </row>
     <row r="16" spans="2:25" ht="15" customHeight="1">
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="72"/>
       <c r="G16" s="19" t="s">
         <v>58</v>
       </c>
@@ -2543,16 +2541,16 @@
       <c r="J16" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="50"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="52"/>
-      <c r="Q16" s="33" t="s">
+      <c r="L16" s="73"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="75"/>
+      <c r="Q16" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="40"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="62"/>
       <c r="V16" s="5" t="s">
         <v>186</v>
       </c>
@@ -2565,10 +2563,10 @@
       </c>
     </row>
     <row r="17" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="75"/>
       <c r="G17" s="19" t="s">
         <v>59</v>
       </c>
@@ -2733,12 +2731,12 @@
       <c r="E20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="G20" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
       <c r="L20" s="19" t="s">
         <v>88</v>
       </c>
@@ -2979,18 +2977,18 @@
       <c r="E25" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="36" t="s">
+      <c r="G25" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="38"/>
-      <c r="Q25" s="36" t="s">
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="47"/>
+      <c r="Q25" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="38"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="47"/>
       <c r="V25" s="5" t="s">
         <v>198</v>
       </c>
@@ -3025,18 +3023,18 @@
       <c r="J26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L26" s="41" t="s">
+      <c r="L26" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="43"/>
-      <c r="Q26" s="33" t="s">
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="59"/>
+      <c r="Q26" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="40"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="61"/>
+      <c r="T26" s="62"/>
       <c r="V26" s="5" t="s">
         <v>199</v>
       </c>
@@ -3071,12 +3069,12 @@
       <c r="J27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L27" s="33" t="s">
+      <c r="L27" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="35"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="67"/>
       <c r="Q27" s="14" t="s">
         <v>4</v>
       </c>
@@ -3215,12 +3213,12 @@
       <c r="E30" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="36" t="s">
+      <c r="G30" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="38"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="47"/>
       <c r="L30" s="27" t="s">
         <v>121</v>
       </c>
@@ -3357,12 +3355,12 @@
       </c>
     </row>
     <row r="33" spans="2:25" ht="21.75" thickBot="1">
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="38"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="47"/>
       <c r="G33" s="7" t="s">
         <v>40</v>
       </c>
@@ -3427,12 +3425,12 @@
       <c r="T34" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="V34" s="36" t="s">
+      <c r="V34" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="38"/>
+      <c r="W34" s="46"/>
+      <c r="X34" s="46"/>
+      <c r="Y34" s="47"/>
     </row>
     <row r="35" spans="2:25" ht="21.75" thickBot="1">
       <c r="B35" s="5" t="s">
@@ -3447,18 +3445,18 @@
       <c r="E35" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="36" t="s">
+      <c r="G35" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="38"/>
-      <c r="V35" s="62" t="s">
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="47"/>
+      <c r="V35" s="63" t="s">
         <v>209</v>
       </c>
-      <c r="W35" s="61"/>
-      <c r="X35" s="61"/>
-      <c r="Y35" s="63"/>
+      <c r="W35" s="64"/>
+      <c r="X35" s="64"/>
+      <c r="Y35" s="65"/>
     </row>
     <row r="36" spans="2:25" ht="21">
       <c r="B36" s="5" t="s">
@@ -3471,24 +3469,24 @@
       <c r="E36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="33" t="s">
+      <c r="G36" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="35"/>
-      <c r="L36" s="41" t="s">
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="67"/>
+      <c r="L36" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="43"/>
-      <c r="Q36" s="36" t="s">
+      <c r="M36" s="58"/>
+      <c r="N36" s="58"/>
+      <c r="O36" s="59"/>
+      <c r="Q36" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="38"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="46"/>
+      <c r="T36" s="47"/>
       <c r="V36" s="14" t="s">
         <v>4</v>
       </c>
@@ -3502,16 +3500,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="2:25" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B37" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="8" t="s">
+    <row r="37" spans="2:25" ht="15.75" customHeight="1">
+      <c r="B37" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="9" t="s">
-        <v>16</v>
+      <c r="D37" s="2"/>
+      <c r="E37" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>4</v>
@@ -3525,18 +3523,18 @@
       <c r="J37" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L37" s="33" t="s">
+      <c r="L37" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="35"/>
-      <c r="Q37" s="33" t="s">
+      <c r="M37" s="66"/>
+      <c r="N37" s="66"/>
+      <c r="O37" s="67"/>
+      <c r="Q37" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="R37" s="39"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="40"/>
+      <c r="R37" s="61"/>
+      <c r="S37" s="61"/>
+      <c r="T37" s="62"/>
       <c r="V37" s="5" t="s">
         <v>179</v>
       </c>
@@ -3551,6 +3549,16 @@
       </c>
     </row>
     <row r="38" spans="2:25" ht="15.75" thickBot="1">
+      <c r="B38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="G38" s="5" t="s">
         <v>78</v>
       </c>
@@ -3600,13 +3608,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="2:25" ht="21.75" thickBot="1">
-      <c r="B39" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="38"/>
+    <row r="39" spans="2:25" ht="15.75" thickBot="1">
       <c r="G39" s="10" t="s">
         <v>80</v>
       </c>
@@ -3654,19 +3656,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="2:25" ht="15.75" thickBot="1">
-      <c r="B40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>9</v>
-      </c>
+    <row r="40" spans="2:25" ht="21.75" thickBot="1">
+      <c r="B40" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="47"/>
       <c r="L40" s="27" t="s">
         <v>122</v>
       </c>
@@ -3701,24 +3697,24 @@
       </c>
     </row>
     <row r="41" spans="2:25" ht="21.75" thickBot="1">
-      <c r="B41" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41" s="41" t="s">
+      <c r="B41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="43"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="59"/>
       <c r="L41" s="5" t="s">
         <v>63</v>
       </c>
@@ -3754,21 +3750,23 @@
     </row>
     <row r="42" spans="2:25">
       <c r="B42" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="46"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="70"/>
       <c r="L42" s="5" t="s">
         <v>119</v>
       </c>
@@ -3793,13 +3791,13 @@
       </c>
     </row>
     <row r="43" spans="2:25" ht="15.75" thickBot="1">
-      <c r="B43" s="15" t="s">
-        <v>54</v>
+      <c r="B43" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="16"/>
+      <c r="D43" s="2"/>
       <c r="E43" s="13" t="s">
         <v>16</v>
       </c>
@@ -3837,14 +3835,14 @@
       </c>
     </row>
     <row r="44" spans="2:25" ht="15.75" thickBot="1">
-      <c r="B44" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="8" t="s">
+      <c r="B44" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="9" t="s">
+      <c r="D44" s="16"/>
+      <c r="E44" s="13" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="5" t="s">
@@ -3871,6 +3869,16 @@
       </c>
     </row>
     <row r="45" spans="2:25" ht="15.75" thickBot="1">
+      <c r="B45" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="G45" s="10" t="s">
         <v>63</v>
       </c>
@@ -3885,44 +3893,40 @@
       </c>
     </row>
     <row r="46" spans="2:25" ht="21.75" thickBot="1">
-      <c r="B46" s="36" t="s">
+      <c r="L46" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="M46" s="58"/>
+      <c r="N46" s="58"/>
+      <c r="O46" s="59"/>
+    </row>
+    <row r="47" spans="2:25" ht="21" customHeight="1">
+      <c r="B47" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="38"/>
-      <c r="L46" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="M46" s="42"/>
-      <c r="N46" s="42"/>
-      <c r="O46" s="43"/>
-    </row>
-    <row r="47" spans="2:25" ht="21" customHeight="1">
-      <c r="B47" s="47" t="s">
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="47"/>
+      <c r="G47" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="47"/>
+      <c r="L47" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="M47" s="66"/>
+      <c r="N47" s="66"/>
+      <c r="O47" s="67"/>
+    </row>
+    <row r="48" spans="2:25" ht="15" customHeight="1">
+      <c r="B48" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="54"/>
-      <c r="G47" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="38"/>
-      <c r="L47" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="M47" s="34"/>
-      <c r="N47" s="34"/>
-      <c r="O47" s="35"/>
-    </row>
-    <row r="48" spans="2:25" ht="15" customHeight="1">
-      <c r="B48" s="55"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="57"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="50"/>
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3949,10 +3953,10 @@
       </c>
     </row>
     <row r="49" spans="2:15" ht="21" customHeight="1">
-      <c r="B49" s="55"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="57"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="53"/>
       <c r="G49" s="5" t="s">
         <v>84</v>
       </c>
@@ -3979,10 +3983,10 @@
       </c>
     </row>
     <row r="50" spans="2:15" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B50" s="55"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="57"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="53"/>
       <c r="G50" s="10" t="s">
         <v>85</v>
       </c>
@@ -4005,10 +4009,10 @@
       </c>
     </row>
     <row r="51" spans="2:15" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B51" s="55"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="57"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="53"/>
       <c r="L51" s="5" t="s">
         <v>63</v>
       </c>
@@ -4023,16 +4027,16 @@
       </c>
     </row>
     <row r="52" spans="2:15" ht="21">
-      <c r="B52" s="58"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="60"/>
-      <c r="G52" s="41" t="s">
+      <c r="B52" s="51"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="53"/>
+      <c r="G52" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="43"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="59"/>
       <c r="L52" s="5" t="s">
         <v>2</v>
       </c>
@@ -4047,24 +4051,16 @@
       </c>
     </row>
     <row r="53" spans="2:15">
-      <c r="B53" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" s="44" t="s">
+      <c r="B53" s="54"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="56"/>
+      <c r="G53" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="46"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="69"/>
+      <c r="J53" s="70"/>
       <c r="L53" s="19" t="s">
         <v>1</v>
       </c>
@@ -4079,17 +4075,17 @@
       </c>
     </row>
     <row r="54" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B54" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>7</v>
+      <c r="B54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>4</v>
@@ -4114,16 +4110,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B55" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="9" t="s">
-        <v>16</v>
+    <row r="55" spans="2:15">
+      <c r="B55" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>84</v>
@@ -4139,6 +4137,16 @@
       </c>
     </row>
     <row r="56" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B56" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="G56" s="10" t="s">
         <v>63</v>
       </c>
@@ -4154,12 +4162,12 @@
     </row>
     <row r="57" spans="2:15" ht="15.75" thickBot="1"/>
     <row r="58" spans="2:15" ht="21">
-      <c r="G58" s="36" t="s">
+      <c r="G58" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="38"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="47"/>
     </row>
     <row r="59" spans="2:15">
       <c r="G59" s="3" t="s">
@@ -4203,32 +4211,14 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B47:E52"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="V34:Y34"/>
-    <mergeCell ref="V35:Y35"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="B16:E17"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="Q25:T25"/>
     <mergeCell ref="G35:J35"/>
     <mergeCell ref="G47:J47"/>
     <mergeCell ref="G58:J58"/>
@@ -4242,14 +4232,32 @@
     <mergeCell ref="L37:O37"/>
     <mergeCell ref="G52:J52"/>
     <mergeCell ref="L47:O47"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B16:E17"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E53"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="V34:Y34"/>
+    <mergeCell ref="V35:Y35"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="G36:J36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
